--- a/artfynd/A 31173-2021.xlsx
+++ b/artfynd/A 31173-2021.xlsx
@@ -1156,7 +1156,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>64418047</v>
+        <v>64417331</v>
       </c>
       <c r="B6" t="n">
         <v>89410</v>
@@ -1198,14 +1198,14 @@
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kastfjärden 5.1, Vb</t>
+          <t>NV Kastfjärden, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>801969.8993612393</v>
+        <v>802733.6971531832</v>
       </c>
       <c r="R6" t="n">
-        <v>7176010.170014634</v>
+        <v>7176355.969029989</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2012-08-06</t>
+          <t>2012-08-20</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2012-08-06</t>
+          <t>2012-08-20</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1275,7 +1275,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64418034</v>
+        <v>64417347</v>
       </c>
       <c r="B7" t="n">
         <v>89410</v>
@@ -1317,14 +1317,14 @@
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kastfjärden 5.1, Vb</t>
+          <t>NV Kastfjärden, Vb</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>801966.7762048487</v>
+        <v>802730.8280433405</v>
       </c>
       <c r="R7" t="n">
-        <v>7176037.101571297</v>
+        <v>7176254.927421299</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2012-08-06</t>
+          <t>2013-08-15</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2012-08-06</t>
+          <t>2013-08-15</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1387,17 +1387,17 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>per-erik mukka</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>64417331</v>
+        <v>73777877</v>
       </c>
       <c r="B8" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1410,40 +1410,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>NV Kastfjärden, Vb</t>
+          <t>Kastfjärden, Vb</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>802733.6971531832</v>
+        <v>802703.8636334147</v>
       </c>
       <c r="R8" t="n">
-        <v>7176355.969029989</v>
+        <v>7176320.982361579</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1470,7 +1464,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2012-08-20</t>
+          <t>2018-09-03</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1480,7 +1474,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2012-08-20</t>
+          <t>2018-09-03</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1494,29 +1488,28 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>64417981</v>
+        <v>73777878</v>
       </c>
       <c r="B9" t="n">
-        <v>89338</v>
+        <v>81236</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1529,40 +1522,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>112</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kastfjärden 5.1, Vb</t>
+          <t>Kastfjärden, Vb</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>801873.2442067189</v>
+        <v>802713.9812469373</v>
       </c>
       <c r="R9" t="n">
-        <v>7176063.219492683</v>
+        <v>7176263.186085557</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1589,7 +1576,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2012-08-06</t>
+          <t>2018-09-03</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1599,7 +1586,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2012-08-06</t>
+          <t>2018-09-03</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1613,29 +1600,28 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>64417347</v>
+        <v>73777876</v>
       </c>
       <c r="B10" t="n">
-        <v>89410</v>
+        <v>89732</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1644,44 +1630,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>2062</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>NV Kastfjärden, Vb</t>
+          <t>Kastfjärden, Vb</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>802730.8280433405</v>
+        <v>802703.8636334147</v>
       </c>
       <c r="R10" t="n">
-        <v>7176254.927421299</v>
+        <v>7176320.982361579</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1708,7 +1688,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2013-08-15</t>
+          <t>2018-09-03</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1718,7 +1698,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2013-08-15</t>
+          <t>2018-09-03</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1732,29 +1712,28 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>per-erik mukka</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64418075</v>
+        <v>73777875</v>
       </c>
       <c r="B11" t="n">
-        <v>89392</v>
+        <v>89673</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1767,40 +1746,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kastfjärden 5.1, Vb</t>
+          <t>Kastfjärden, Vb</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>802097.2695745419</v>
+        <v>802693.1044104757</v>
       </c>
       <c r="R11" t="n">
-        <v>7175823.1014633</v>
+        <v>7176316.013134292</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1827,7 +1800,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2012-08-06</t>
+          <t>2018-09-03</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1837,7 +1810,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2012-08-06</t>
+          <t>2018-09-03</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1851,29 +1824,28 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>64418093</v>
+        <v>64418047</v>
       </c>
       <c r="B12" t="n">
-        <v>78596</v>
+        <v>89410</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1882,31 +1854,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1916,10 +1888,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>802052.4354956049</v>
+        <v>801969.8993612393</v>
       </c>
       <c r="R12" t="n">
-        <v>7175669.41669684</v>
+        <v>7176010.170014634</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1970,6 +1942,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1988,10 +1961,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>73777873</v>
+        <v>64418034</v>
       </c>
       <c r="B13" t="n">
-        <v>89392</v>
+        <v>89410</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2004,34 +1977,40 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Kastfjärden, Vb</t>
+          <t>Kastfjärden 5.1, Vb</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>802237.1253464884</v>
+        <v>801966.7762048487</v>
       </c>
       <c r="R13" t="n">
-        <v>7175875.136938488</v>
+        <v>7176037.101571297</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2058,7 +2037,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2018-09-03</t>
+          <t>2012-08-06</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2068,7 +2047,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2018-09-03</t>
+          <t>2012-08-06</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2082,28 +2061,29 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>73777877</v>
+        <v>64417981</v>
       </c>
       <c r="B14" t="n">
-        <v>89392</v>
+        <v>89338</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2116,34 +2096,40 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>112</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Kastfjärden, Vb</t>
+          <t>Kastfjärden 5.1, Vb</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>802703.8636334147</v>
+        <v>801873.2442067189</v>
       </c>
       <c r="R14" t="n">
-        <v>7176320.982361579</v>
+        <v>7176063.219492683</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2170,7 +2156,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2018-09-03</t>
+          <t>2012-08-06</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2180,7 +2166,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2018-09-03</t>
+          <t>2012-08-06</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2194,25 +2180,26 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>73777874</v>
+        <v>64418075</v>
       </c>
       <c r="B15" t="n">
         <v>89392</v>
@@ -2246,16 +2233,22 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Kastfjärden, Vb</t>
+          <t>Kastfjärden 5.1, Vb</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>802075.943733918</v>
+        <v>802097.2695745419</v>
       </c>
       <c r="R15" t="n">
-        <v>7175733.178214416</v>
+        <v>7175823.1014633</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2282,7 +2275,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2018-09-03</t>
+          <t>2012-08-06</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2292,7 +2285,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2018-09-03</t>
+          <t>2012-08-06</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2306,28 +2299,29 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>73777878</v>
+        <v>64418093</v>
       </c>
       <c r="B16" t="n">
-        <v>81236</v>
+        <v>78596</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2336,38 +2330,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1312</v>
+        <v>6462</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Kastfjärden, Vb</t>
+          <t>Kastfjärden 5.1, Vb</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>802713.9812469373</v>
+        <v>802052.4354956049</v>
       </c>
       <c r="R16" t="n">
-        <v>7176263.186085557</v>
+        <v>7175669.41669684</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2018-09-03</t>
+          <t>2012-08-06</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2018-09-03</t>
+          <t>2012-08-06</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2424,22 +2424,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>73777876</v>
+        <v>73777873</v>
       </c>
       <c r="B17" t="n">
-        <v>89732</v>
+        <v>89392</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2448,25 +2448,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2062</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>802703.8636334147</v>
+        <v>802237.1253464884</v>
       </c>
       <c r="R17" t="n">
-        <v>7176320.982361579</v>
+        <v>7175875.136938488</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2548,10 +2548,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>73777875</v>
+        <v>73777874</v>
       </c>
       <c r="B18" t="n">
-        <v>89673</v>
+        <v>89392</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2564,21 +2564,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2588,10 +2588,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>802693.1044104757</v>
+        <v>802075.943733918</v>
       </c>
       <c r="R18" t="n">
-        <v>7176316.013134292</v>
+        <v>7175733.178214416</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
